--- a/Modelos ER/AnalisisBDUNAH.xlsx
+++ b/Modelos ER/AnalisisBDUNAH.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Teach UNAH\Bases de Datos I\2017-I\Repositorio de Ejercicios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Teach UNAH\Bases de Datos I\2017-I\Repositorio de Ejercicios\IS501-I2017\Modelos ER\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="19200" windowHeight="7245" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="18930" windowHeight="6540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="159">
   <si>
     <t>Nombre</t>
   </si>
@@ -235,6 +236,273 @@
   </si>
   <si>
     <t>Telefono campus</t>
+  </si>
+  <si>
+    <t>CODIGO_LUGAR</t>
+  </si>
+  <si>
+    <t>NOMBRE_LUGAR</t>
+  </si>
+  <si>
+    <t>CODIGO_LUGAR_PADRE</t>
+  </si>
+  <si>
+    <t>HONDURAS</t>
+  </si>
+  <si>
+    <t>CODIGO_PAIS</t>
+  </si>
+  <si>
+    <t>NOMBRE_PAIS</t>
+  </si>
+  <si>
+    <t>CODIGO_NACIONALIDAD</t>
+  </si>
+  <si>
+    <t>NOMBRE_NACIONALIDAD</t>
+  </si>
+  <si>
+    <t>GUATEMALA</t>
+  </si>
+  <si>
+    <t>HONDUREñA</t>
+  </si>
+  <si>
+    <t>GUATEMALTECA</t>
+  </si>
+  <si>
+    <t>TBL_PERSONAS</t>
+  </si>
+  <si>
+    <t>CODIGO_PERSONA</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>TBL_ALUMNOS</t>
+  </si>
+  <si>
+    <t>CUENTA</t>
+  </si>
+  <si>
+    <t>PROMEDIO</t>
+  </si>
+  <si>
+    <t>BRAYAN</t>
+  </si>
+  <si>
+    <t>BRITANY</t>
+  </si>
+  <si>
+    <t>TBL_EMPLEADOS</t>
+  </si>
+  <si>
+    <t>CODIGO_EMPLEADO</t>
+  </si>
+  <si>
+    <t>NOMBRE_EMPLEADO</t>
+  </si>
+  <si>
+    <t>CODIGO_EMPLEADO_SUPERIOR</t>
+  </si>
+  <si>
+    <t>Julieta</t>
+  </si>
+  <si>
+    <t>Rutilia</t>
+  </si>
+  <si>
+    <t>Monico</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>Yo</t>
+  </si>
+  <si>
+    <t>TBL_CARGOS</t>
+  </si>
+  <si>
+    <t>CODIGO_CARGO</t>
+  </si>
+  <si>
+    <t>NOMBRE_CARGO</t>
+  </si>
+  <si>
+    <t>RECTOR</t>
+  </si>
+  <si>
+    <t>MAESTRO TITULAR</t>
+  </si>
+  <si>
+    <t>JEFE DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t>COORDINADOR</t>
+  </si>
+  <si>
+    <t>DECANO</t>
+  </si>
+  <si>
+    <t>MAESTRO POR HORA</t>
+  </si>
+  <si>
+    <t>CODIGO_CARGO_PADRE</t>
+  </si>
+  <si>
+    <t>ESTADO_EMPLEADO</t>
+  </si>
+  <si>
+    <t>TBL_ESTADOS_EMPLEADOS</t>
+  </si>
+  <si>
+    <t>ACTIVO</t>
+  </si>
+  <si>
+    <t>DESPEDIDO</t>
+  </si>
+  <si>
+    <t>LICENCIA</t>
+  </si>
+  <si>
+    <t>RENUNCIO</t>
+  </si>
+  <si>
+    <t>VICERECTOR</t>
+  </si>
+  <si>
+    <t>CODIGO_ASIGNATURA</t>
+  </si>
+  <si>
+    <t>NOMBRE_ASIGNATURA</t>
+  </si>
+  <si>
+    <t>Matematica I</t>
+  </si>
+  <si>
+    <t>Matematica II</t>
+  </si>
+  <si>
+    <t>Calculo I</t>
+  </si>
+  <si>
+    <t>tbl_asignaturas</t>
+  </si>
+  <si>
+    <t>CODIGO_CARRERA_DUEÑA</t>
+  </si>
+  <si>
+    <t>CODIGO_CARRERA</t>
+  </si>
+  <si>
+    <t>NOMBRE_CARRERA</t>
+  </si>
+  <si>
+    <t>Matematicas</t>
+  </si>
+  <si>
+    <t>Sistemas</t>
+  </si>
+  <si>
+    <t>Introduccion a ingenieria en Sistemas</t>
+  </si>
+  <si>
+    <t>Quimica</t>
+  </si>
+  <si>
+    <t>TBL_REQUISITOS</t>
+  </si>
+  <si>
+    <t>CODIGO_ASIGNATURA_REQUSITO</t>
+  </si>
+  <si>
+    <t>FECHA_HORA_MATRICULA</t>
+  </si>
+  <si>
+    <t>CODIGO_ALUMNO</t>
+  </si>
+  <si>
+    <t>CODIGO_SECCION</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>MATRICULADA</t>
+  </si>
+  <si>
+    <t>LISTA ESPERA</t>
+  </si>
+  <si>
+    <t>NUMERO LISTA</t>
+  </si>
+  <si>
+    <t>CODIGO_HISTORIAL</t>
+  </si>
+  <si>
+    <t>CODIGO_USUARIO</t>
+  </si>
+  <si>
+    <t>CODIGO_PERIODO</t>
+  </si>
+  <si>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Recuento</t>
+  </si>
+  <si>
+    <t>DETALLE EVALUACION</t>
+  </si>
+  <si>
+    <t>VALOR</t>
+  </si>
+  <si>
+    <t>II PARCIAL</t>
+  </si>
+  <si>
+    <t>III PARCIAL</t>
+  </si>
+  <si>
+    <t>col-md-</t>
+  </si>
+  <si>
+    <t>col-sm-</t>
+  </si>
+  <si>
+    <t>col-lg-</t>
+  </si>
+  <si>
+    <t>col-xs-</t>
+  </si>
+  <si>
+    <t>Pantallas grandes</t>
+  </si>
+  <si>
+    <t>Pantallas regulares</t>
+  </si>
+  <si>
+    <t>Tablets</t>
+  </si>
+  <si>
+    <t>Telefonos</t>
+  </si>
+  <si>
+    <t>col-lg-3</t>
+  </si>
+  <si>
+    <t>col-xs-12</t>
+  </si>
+  <si>
+    <t>ACUMULA…</t>
   </si>
 </sst>
 </file>
@@ -258,7 +526,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,6 +536,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,7 +705,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -446,6 +720,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -828,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:W24"/>
+  <dimension ref="B5:W145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M4" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="H127" workbookViewId="0">
+      <selection activeCell="J133" sqref="J133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,11 +1117,17 @@
     <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.140625" customWidth="1"/>
-    <col min="14" max="14" width="19" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" customWidth="1"/>
+    <col min="14" max="14" width="29" customWidth="1"/>
+    <col min="15" max="15" width="29" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.28515625" customWidth="1"/>
+    <col min="17" max="17" width="31" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
@@ -1266,7 +1548,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>13</v>
       </c>
@@ -1274,7 +1556,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>58</v>
       </c>
@@ -1288,7 +1570,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
         <v>1</v>
       </c>
@@ -1302,7 +1584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
         <v>2</v>
       </c>
@@ -1318,8 +1600,17 @@
       <c r="M21" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="R21" t="s">
+        <v>70</v>
+      </c>
+      <c r="S21" t="s">
+        <v>71</v>
+      </c>
+      <c r="T21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="G22" s="1">
         <v>4</v>
       </c>
@@ -1332,8 +1623,14 @@
       <c r="N22" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="G23" s="1">
         <v>4</v>
       </c>
@@ -1347,12 +1644,831 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
       <c r="M24" s="1">
         <v>2</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="O28" t="s">
+        <v>74</v>
+      </c>
+      <c r="P28" t="s">
+        <v>75</v>
+      </c>
+      <c r="R28" t="s">
+        <v>76</v>
+      </c>
+      <c r="S28" t="s">
+        <v>77</v>
+      </c>
+      <c r="T28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29" t="s">
+        <v>73</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29" t="s">
+        <v>79</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="O30">
+        <v>2</v>
+      </c>
+      <c r="P30" t="s">
+        <v>78</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30" t="s">
+        <v>80</v>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M35" t="s">
+        <v>81</v>
+      </c>
+      <c r="R35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>82</v>
+      </c>
+      <c r="N36" t="s">
+        <v>83</v>
+      </c>
+      <c r="R36" t="s">
+        <v>82</v>
+      </c>
+      <c r="S36" t="s">
+        <v>85</v>
+      </c>
+      <c r="T36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>87</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>20051213123</v>
+      </c>
+      <c r="T37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>88</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>20045545645</v>
+      </c>
+      <c r="T38">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M47" t="s">
+        <v>90</v>
+      </c>
+      <c r="N47" t="s">
+        <v>91</v>
+      </c>
+      <c r="O47" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="P47" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>93</v>
+      </c>
+      <c r="O48" s="14"/>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>94</v>
+      </c>
+      <c r="O49" s="14">
+        <v>666</v>
+      </c>
+      <c r="P49">
+        <v>3</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>95</v>
+      </c>
+      <c r="O50" s="14">
+        <v>666</v>
+      </c>
+      <c r="P50">
+        <v>6</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>96</v>
+      </c>
+      <c r="O51" s="14">
+        <v>3</v>
+      </c>
+      <c r="P51">
+        <v>2</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>97</v>
+      </c>
+      <c r="O52" s="14">
+        <v>4</v>
+      </c>
+      <c r="P52">
+        <v>4</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <v>6</v>
+      </c>
+      <c r="N53" t="s">
+        <v>98</v>
+      </c>
+      <c r="O53" s="14">
+        <v>5</v>
+      </c>
+      <c r="P53">
+        <v>7</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <v>666</v>
+      </c>
+      <c r="N54" t="s">
+        <v>28</v>
+      </c>
+      <c r="O54" s="14"/>
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="Q60" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M61" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M62" t="s">
+        <v>100</v>
+      </c>
+      <c r="N62" t="s">
+        <v>101</v>
+      </c>
+      <c r="O62" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q62">
+        <v>2</v>
+      </c>
+      <c r="R62" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q63">
+        <v>3</v>
+      </c>
+      <c r="R63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>104</v>
+      </c>
+      <c r="O64">
+        <v>6</v>
+      </c>
+      <c r="Q64">
+        <v>4</v>
+      </c>
+      <c r="R64" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M65">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>105</v>
+      </c>
+      <c r="O65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>103</v>
+      </c>
+      <c r="O66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M67">
+        <v>6</v>
+      </c>
+      <c r="N67" t="s">
+        <v>106</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M68">
+        <v>7</v>
+      </c>
+      <c r="N68" t="s">
+        <v>107</v>
+      </c>
+      <c r="O68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M69">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>115</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M76" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L81" t="s">
+        <v>116</v>
+      </c>
+      <c r="M81" t="s">
+        <v>117</v>
+      </c>
+      <c r="N81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82" t="s">
+        <v>118</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L83">
+        <v>2</v>
+      </c>
+      <c r="M83" t="s">
+        <v>119</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L84">
+        <v>3</v>
+      </c>
+      <c r="M84" t="s">
+        <v>120</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L85">
+        <v>4</v>
+      </c>
+      <c r="M85" t="s">
+        <v>127</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="M88" t="s">
+        <v>123</v>
+      </c>
+      <c r="N88" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="M90">
+        <v>2</v>
+      </c>
+      <c r="N90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="M91">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="M95" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="M96" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="M97" s="1">
+        <v>1</v>
+      </c>
+      <c r="N97" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O97" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="M98" s="1">
+        <v>2</v>
+      </c>
+      <c r="N98" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O98" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="M99" s="1">
+        <v>3</v>
+      </c>
+      <c r="N99" s="1">
+        <v>1</v>
+      </c>
+      <c r="O99" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="M100" s="1">
+        <v>3</v>
+      </c>
+      <c r="N100" s="1">
+        <v>2</v>
+      </c>
+      <c r="O100" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="M101" s="1">
+        <v>1</v>
+      </c>
+      <c r="N101" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O101" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="M102" s="1">
+        <v>2</v>
+      </c>
+      <c r="N102" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O102" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="M103" s="1">
+        <v>3</v>
+      </c>
+      <c r="N103" s="1">
+        <v>2</v>
+      </c>
+      <c r="O103" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J110" t="s">
+        <v>131</v>
+      </c>
+      <c r="K110" t="s">
+        <v>132</v>
+      </c>
+      <c r="L110" t="s">
+        <v>133</v>
+      </c>
+      <c r="M110" t="s">
+        <v>134</v>
+      </c>
+      <c r="N110" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J111" s="15">
+        <v>41255</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>444</v>
+      </c>
+      <c r="M111" t="s">
+        <v>135</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J112" s="15">
+        <v>41255</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>123</v>
+      </c>
+      <c r="M112" t="s">
+        <v>135</v>
+      </c>
+      <c r="N112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J113" s="15">
+        <v>41255</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>666</v>
+      </c>
+      <c r="M113" t="s">
+        <v>135</v>
+      </c>
+      <c r="N113">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J114" s="15">
+        <v>41255</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>4444</v>
+      </c>
+      <c r="M114" t="s">
+        <v>135</v>
+      </c>
+      <c r="N114">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J115" s="15">
+        <v>41255</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>5555</v>
+      </c>
+      <c r="M115" t="s">
+        <v>136</v>
+      </c>
+      <c r="N115">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="116" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J116" s="15"/>
+    </row>
+    <row r="129" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J129" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="130" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J130" s="1">
+        <v>1</v>
+      </c>
+      <c r="K130" s="1">
+        <v>1</v>
+      </c>
+      <c r="L130" s="1">
+        <v>23</v>
+      </c>
+      <c r="M130" s="1">
+        <v>60</v>
+      </c>
+      <c r="N130" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J131" s="1">
+        <v>2</v>
+      </c>
+      <c r="K131" s="1">
+        <v>1</v>
+      </c>
+      <c r="L131" s="1">
+        <v>45</v>
+      </c>
+      <c r="M131" s="1">
+        <v>50</v>
+      </c>
+      <c r="N131" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J132" s="1">
+        <v>3</v>
+      </c>
+      <c r="K132" s="1">
+        <v>1</v>
+      </c>
+      <c r="L132" s="1">
+        <v>67</v>
+      </c>
+      <c r="M132" s="1">
+        <v>30</v>
+      </c>
+      <c r="N132" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J133" s="1">
+        <v>4</v>
+      </c>
+      <c r="K133" s="1">
+        <v>1</v>
+      </c>
+      <c r="L133" s="1">
+        <v>7</v>
+      </c>
+      <c r="M133" s="1">
+        <v>55</v>
+      </c>
+      <c r="N133" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J134" s="1">
+        <v>5</v>
+      </c>
+      <c r="K134" s="1">
+        <v>1</v>
+      </c>
+      <c r="L134" s="1">
+        <v>3</v>
+      </c>
+      <c r="M134" s="1">
+        <v>60</v>
+      </c>
+      <c r="N134" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J135" s="1">
+        <v>6</v>
+      </c>
+      <c r="K135" s="1">
+        <v>1</v>
+      </c>
+      <c r="L135" s="1">
+        <v>4</v>
+      </c>
+      <c r="M135" s="1">
+        <v>50</v>
+      </c>
+      <c r="N135" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J142" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J143" s="1">
+        <v>1</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L143" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J144" s="1">
+        <v>1</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L144" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J145" s="1">
+        <v>1</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L145" s="1">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1366,4 +2482,482 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:N31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>11</v>
+      </c>
+      <c r="N3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>